--- a/statistics/market_skill_volume.xlsx
+++ b/statistics/market_skill_volume.xlsx
@@ -3720,8 +3720,8 @@
   </sheetPr>
   <dimension ref="A1:I1021"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
